--- a/OCRProject/Output/Comparision/ProcessingResults.xlsx
+++ b/OCRProject/Output/Comparision/ProcessingResults.xlsx
@@ -132,10 +132,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="0">
-        <v>218.80706666666666</v>
+        <v>216.42262727272725</v>
       </c>
       <c r="C2" s="0">
-        <v>0.011531893412272134</v>
+        <v>0.00698955720543439</v>
       </c>
     </row>
     <row r="3">
@@ -143,10 +143,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="0">
-        <v>188.8654</v>
+        <v>191.52272727272722</v>
       </c>
       <c r="C3" s="0">
-        <v>-0.000503094991048177</v>
+        <v>0.002265641583899696</v>
       </c>
     </row>
     <row r="4">
@@ -154,10 +154,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="0">
-        <v>197.16076666666672</v>
+        <v>200.75263636363633</v>
       </c>
       <c r="C4" s="0">
-        <v>0.0024852328830295136</v>
+        <v>0.0017105540656267805</v>
       </c>
     </row>
     <row r="5">
@@ -165,10 +165,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="0">
-        <v>176.70758333333333</v>
+        <v>192.40982727272728</v>
       </c>
       <c r="C5" s="0">
-        <v>-0.0009787665473090276</v>
+        <v>0.002271925175454256</v>
       </c>
     </row>
     <row r="6">
@@ -176,10 +176,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="0">
-        <v>180.23071666666667</v>
+        <v>193.31104545454545</v>
       </c>
       <c r="C6" s="0">
-        <v>0.0027030944824218747</v>
+        <v>0.0022571669559411202</v>
       </c>
     </row>
     <row r="7">
@@ -187,10 +187,10 @@
         <v>8</v>
       </c>
       <c r="B7" s="0">
-        <v>177.99451666666664</v>
+        <v>260.83763636363636</v>
       </c>
       <c r="C7" s="0">
-        <v>0.0027030944824218747</v>
+        <v>0.002271925175454256</v>
       </c>
     </row>
     <row r="8">
@@ -198,10 +198,10 @@
         <v>9</v>
       </c>
       <c r="B8" s="0">
-        <v>182.1421333333333</v>
+        <v>196.12817272727273</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.0004994710286458332</v>
+        <v>0.0022361988566545117</v>
       </c>
     </row>
     <row r="9">
@@ -209,10 +209,10 @@
         <v>10</v>
       </c>
       <c r="B9" s="0">
-        <v>213.2821</v>
+        <v>241.06788181818183</v>
       </c>
       <c r="C9" s="0">
-        <v>0.002307891845703125</v>
+        <v>0.002271925175454256</v>
       </c>
     </row>
     <row r="10">
@@ -220,10 +220,10 @@
         <v>11</v>
       </c>
       <c r="B10" s="0">
-        <v>210.29066666666668</v>
+        <v>216.0979181818182</v>
       </c>
       <c r="C10" s="0">
-        <v>0.0005740271674262153</v>
+        <v>0.002271925175454256</v>
       </c>
     </row>
     <row r="11">
@@ -231,10 +231,10 @@
         <v>12</v>
       </c>
       <c r="B11" s="0">
-        <v>203.29536666666664</v>
+        <v>214.82757272727275</v>
       </c>
       <c r="C11" s="0">
-        <v>0.00033774905734592015</v>
+        <v>0.002181104379549093</v>
       </c>
     </row>
     <row r="12">
@@ -242,10 +242,10 @@
         <v>13</v>
       </c>
       <c r="B12" s="0">
-        <v>206.02668333333335</v>
+        <v>372.53667272727273</v>
       </c>
       <c r="C12" s="0">
-        <v>0.0027030944824218747</v>
+        <v>0.002271925175454256</v>
       </c>
     </row>
     <row r="13">
@@ -253,10 +253,10 @@
         <v>14</v>
       </c>
       <c r="B13" s="0">
-        <v>206.65228333333334</v>
+        <v>224.09056363636364</v>
       </c>
       <c r="C13" s="0">
-        <v>0.0027030944824218747</v>
+        <v>0.002271925175454256</v>
       </c>
     </row>
     <row r="14">
@@ -264,10 +264,10 @@
         <v>15</v>
       </c>
       <c r="B14" s="0">
-        <v>206.49561666666668</v>
+        <v>214.84678181818182</v>
       </c>
       <c r="C14" s="0">
-        <v>0.0027030944824218747</v>
+        <v>0.00034992311095590904</v>
       </c>
     </row>
     <row r="15">
@@ -275,10 +275,10 @@
         <v>16</v>
       </c>
       <c r="B15" s="0">
-        <v>111.57866666666665</v>
+        <v>268.5448181818182</v>
       </c>
       <c r="C15" s="0">
-        <v>1.155323961046007</v>
+        <v>1.5051493041583845</v>
       </c>
     </row>
     <row r="16">
@@ -286,10 +286,10 @@
         <v>17</v>
       </c>
       <c r="B16" s="0">
-        <v>430.6702</v>
+        <v>446.83340909090913</v>
       </c>
       <c r="C16" s="0">
-        <v>0.0026240878634982636</v>
+        <v>-0.1721978972343796</v>
       </c>
     </row>
   </sheetData>
